--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.462340335761517</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N2">
-        <v>0.462340335761517</v>
+        <v>0.143911</v>
       </c>
       <c r="O2">
-        <v>0.2856670437508328</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P2">
-        <v>0.2856670437508328</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q2">
-        <v>18.66146478925797</v>
+        <v>2.914034842748</v>
       </c>
       <c r="R2">
-        <v>18.66146478925797</v>
+        <v>11.656139370992</v>
       </c>
       <c r="S2">
-        <v>0.12559045468593</v>
+        <v>0.01680489101462858</v>
       </c>
       <c r="T2">
-        <v>0.12559045468593</v>
+        <v>0.01159376586772574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.093106289003298</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N3">
-        <v>0.093106289003298</v>
+        <v>1.407406</v>
       </c>
       <c r="O3">
-        <v>0.0575277480178632</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P3">
-        <v>0.0575277480178632</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q3">
-        <v>3.758053536539701</v>
+        <v>18.99891887760533</v>
       </c>
       <c r="R3">
-        <v>3.758053536539701</v>
+        <v>113.993513265632</v>
       </c>
       <c r="S3">
-        <v>0.02529145797063958</v>
+        <v>0.1095644967761758</v>
       </c>
       <c r="T3">
-        <v>0.02529145797063958</v>
+        <v>0.1133835192920097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.06301215749774</v>
+        <v>0.03556466666666667</v>
       </c>
       <c r="N4">
-        <v>1.06301215749774</v>
+        <v>0.106694</v>
       </c>
       <c r="O4">
-        <v>0.6568052082313038</v>
+        <v>0.01914578269786067</v>
       </c>
       <c r="P4">
-        <v>0.6568052082313038</v>
+        <v>0.02421928699130962</v>
       </c>
       <c r="Q4">
-        <v>42.90640987449918</v>
+        <v>1.440288481594667</v>
       </c>
       <c r="R4">
-        <v>42.90640987449918</v>
+        <v>8.641730889568001</v>
       </c>
       <c r="S4">
-        <v>0.2887573717247035</v>
+        <v>0.008305971708971896</v>
       </c>
       <c r="T4">
-        <v>0.2887573717247035</v>
+        <v>0.008595487874388543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.462340335761517</v>
+        <v>0.1854883333333334</v>
       </c>
       <c r="N5">
-        <v>0.462340335761517</v>
+        <v>0.5564650000000001</v>
       </c>
       <c r="O5">
-        <v>0.2856670437508328</v>
+        <v>0.09985526804661032</v>
       </c>
       <c r="P5">
-        <v>0.2856670437508328</v>
+        <v>0.1263162458584279</v>
       </c>
       <c r="Q5">
-        <v>2.772289381773198</v>
+        <v>7.511857554413336</v>
       </c>
       <c r="R5">
-        <v>2.772289381773198</v>
+        <v>45.07114532648001</v>
       </c>
       <c r="S5">
-        <v>0.018657328774014</v>
+        <v>0.04331998563211659</v>
       </c>
       <c r="T5">
-        <v>0.018657328774014</v>
+        <v>0.04482996382197332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.093106289003298</v>
+        <v>1.095428</v>
       </c>
       <c r="N6">
-        <v>0.093106289003298</v>
+        <v>2.190856</v>
       </c>
       <c r="O6">
-        <v>0.0575277480178632</v>
+        <v>0.5897096307895137</v>
       </c>
       <c r="P6">
-        <v>0.0575277480178632</v>
+        <v>0.4973191577842487</v>
       </c>
       <c r="Q6">
-        <v>0.5582847880988069</v>
+        <v>44.362353951008</v>
       </c>
       <c r="R6">
-        <v>0.5582847880988069</v>
+        <v>177.449415804032</v>
       </c>
       <c r="S6">
-        <v>0.003757220624070594</v>
+        <v>0.2558323985570604</v>
       </c>
       <c r="T6">
-        <v>0.003757220624070594</v>
+        <v>0.1764998611218193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.06301215749774</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N7">
-        <v>1.06301215749774</v>
+        <v>0.143911</v>
       </c>
       <c r="O7">
-        <v>0.6568052082313038</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P7">
-        <v>0.6568052082313038</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q7">
-        <v>6.3740432944767</v>
+        <v>0.4651806746941667</v>
       </c>
       <c r="R7">
-        <v>6.3740432944767</v>
+        <v>2.791084048165</v>
       </c>
       <c r="S7">
-        <v>0.04289690035489239</v>
+        <v>0.002682641410345994</v>
       </c>
       <c r="T7">
-        <v>0.04289690035489239</v>
+        <v>0.002776148597888222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,119 +909,119 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.462340335761517</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N8">
-        <v>0.462340335761517</v>
+        <v>1.407406</v>
       </c>
       <c r="O8">
-        <v>0.2856670437508328</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P8">
-        <v>0.2856670437508328</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q8">
-        <v>0.3512442028369314</v>
+        <v>3.032884086454444</v>
       </c>
       <c r="R8">
-        <v>0.3512442028369314</v>
+        <v>27.29595677809</v>
       </c>
       <c r="S8">
-        <v>0.002363850835840057</v>
+        <v>0.01749028041298401</v>
       </c>
       <c r="T8">
-        <v>0.002363850835840057</v>
+        <v>0.02714989259722656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.093106289003298</v>
+        <v>0.03556466666666667</v>
       </c>
       <c r="N9">
-        <v>0.093106289003298</v>
+        <v>0.106694</v>
       </c>
       <c r="O9">
-        <v>0.0575277480178632</v>
+        <v>0.01914578269786067</v>
       </c>
       <c r="P9">
-        <v>0.0575277480178632</v>
+        <v>0.02421928699130962</v>
       </c>
       <c r="Q9">
-        <v>0.07073370357402071</v>
+        <v>0.2299198203788889</v>
       </c>
       <c r="R9">
-        <v>0.07073370357402071</v>
+        <v>2.06927838341</v>
       </c>
       <c r="S9">
-        <v>0.0004760332639372777</v>
+        <v>0.001325920152665909</v>
       </c>
       <c r="T9">
-        <v>0.0004760332639372777</v>
+        <v>0.002058205408225125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.06301215749774</v>
+        <v>0.1854883333333334</v>
       </c>
       <c r="N10">
-        <v>1.06301215749774</v>
+        <v>0.5564650000000001</v>
       </c>
       <c r="O10">
-        <v>0.6568052082313038</v>
+        <v>0.09985526804661032</v>
       </c>
       <c r="P10">
-        <v>0.6568052082313038</v>
+        <v>0.1263162458584279</v>
       </c>
       <c r="Q10">
-        <v>0.807580107089887</v>
+        <v>1.199152087719445</v>
       </c>
       <c r="R10">
-        <v>0.807580107089887</v>
+        <v>10.792368789475</v>
       </c>
       <c r="S10">
-        <v>0.005434962045589984</v>
+        <v>0.006915366916164313</v>
       </c>
       <c r="T10">
-        <v>0.005434962045589984</v>
+        <v>0.01073461743385752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.533709373801184</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>0.533709373801184</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.005813228274680102</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J11">
-        <v>0.005813228274680102</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.462340335761517</v>
+        <v>1.095428</v>
       </c>
       <c r="N11">
-        <v>0.462340335761517</v>
+        <v>2.190856</v>
       </c>
       <c r="O11">
-        <v>0.2856670437508328</v>
+        <v>0.5897096307895137</v>
       </c>
       <c r="P11">
-        <v>0.2856670437508328</v>
+        <v>0.4973191577842487</v>
       </c>
       <c r="Q11">
-        <v>0.2467553710823084</v>
+        <v>7.081764925806667</v>
       </c>
       <c r="R11">
-        <v>0.2467553710823084</v>
+        <v>42.49058955484</v>
       </c>
       <c r="S11">
-        <v>0.001660647735876619</v>
+        <v>0.04083969279419213</v>
       </c>
       <c r="T11">
-        <v>0.001660647735876619</v>
+        <v>0.04226321693668308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H12">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I12">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J12">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.093106289003298</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N12">
-        <v>0.093106289003298</v>
+        <v>0.143911</v>
       </c>
       <c r="O12">
-        <v>0.0575277480178632</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P12">
-        <v>0.0575277480178632</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q12">
-        <v>0.04969169920090224</v>
+        <v>0.05499431743616667</v>
       </c>
       <c r="R12">
-        <v>0.04969169920090224</v>
+        <v>0.329965904617</v>
       </c>
       <c r="S12">
-        <v>0.0003344219313561145</v>
+        <v>0.0003171456625642653</v>
       </c>
       <c r="T12">
-        <v>0.0003344219313561145</v>
+        <v>0.0003282002145566526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H13">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I13">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J13">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.06301215749774</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N13">
-        <v>1.06301215749774</v>
+        <v>1.407406</v>
       </c>
       <c r="O13">
-        <v>0.6568052082313038</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P13">
-        <v>0.6568052082313038</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q13">
-        <v>0.5673395529211644</v>
+        <v>0.3585518472091111</v>
       </c>
       <c r="R13">
-        <v>0.5673395529211644</v>
+        <v>3.226966624882</v>
       </c>
       <c r="S13">
-        <v>0.003818158607447367</v>
+        <v>0.002067725693273029</v>
       </c>
       <c r="T13">
-        <v>0.003818158607447367</v>
+        <v>0.003209698710788752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H14">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I14">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J14">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.462340335761517</v>
+        <v>0.03556466666666667</v>
       </c>
       <c r="N14">
-        <v>0.462340335761517</v>
+        <v>0.106694</v>
       </c>
       <c r="O14">
-        <v>0.2856670437508328</v>
+        <v>0.01914578269786067</v>
       </c>
       <c r="P14">
-        <v>0.2856670437508328</v>
+        <v>0.02421928699130962</v>
       </c>
       <c r="Q14">
-        <v>15.29188526029365</v>
+        <v>0.02718144642422222</v>
       </c>
       <c r="R14">
-        <v>15.29188526029365</v>
+        <v>0.244633017818</v>
       </c>
       <c r="S14">
-        <v>0.1029134017363336</v>
+        <v>0.0001567521561781551</v>
       </c>
       <c r="T14">
-        <v>0.1029134017363336</v>
+        <v>0.0002433239550271174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H15">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I15">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J15">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.093106289003298</v>
+        <v>0.1854883333333334</v>
       </c>
       <c r="N15">
-        <v>0.093106289003298</v>
+        <v>0.5564650000000001</v>
       </c>
       <c r="O15">
-        <v>0.0575277480178632</v>
+        <v>0.09985526804661032</v>
       </c>
       <c r="P15">
-        <v>0.0575277480178632</v>
+        <v>0.1263162458584279</v>
       </c>
       <c r="Q15">
-        <v>3.079486210315377</v>
+        <v>0.1417654562061111</v>
       </c>
       <c r="R15">
-        <v>3.079486210315377</v>
+        <v>1.275889105855</v>
       </c>
       <c r="S15">
-        <v>0.02072474362115376</v>
+        <v>0.000817544459741664</v>
       </c>
       <c r="T15">
-        <v>0.02072474362115376</v>
+        <v>0.001269061658895204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.0749538326707</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H16">
-        <v>33.0749538326707</v>
+        <v>2.292847</v>
       </c>
       <c r="I16">
-        <v>0.3602564733581859</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J16">
-        <v>0.3602564733581859</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.06301215749774</v>
+        <v>1.095428</v>
       </c>
       <c r="N16">
-        <v>1.06301215749774</v>
+        <v>2.190856</v>
       </c>
       <c r="O16">
-        <v>0.6568052082313038</v>
+        <v>0.5897096307895137</v>
       </c>
       <c r="P16">
-        <v>0.6568052082313038</v>
+        <v>0.4973191577842487</v>
       </c>
       <c r="Q16">
-        <v>35.15907803280543</v>
+        <v>0.8372162678386668</v>
       </c>
       <c r="R16">
-        <v>35.15907803280543</v>
+        <v>5.023297607032</v>
       </c>
       <c r="S16">
-        <v>0.2366183280006985</v>
+        <v>0.004828126256525881</v>
       </c>
       <c r="T16">
-        <v>0.2366183280006985</v>
+        <v>0.004996417294457892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0818355071188</v>
+        <v>0.535784</v>
       </c>
       <c r="H17">
-        <v>11.0818355071188</v>
+        <v>1.607352</v>
       </c>
       <c r="I17">
-        <v>0.1207047180875166</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J17">
-        <v>0.1207047180875166</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.462340335761517</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N17">
-        <v>0.462340335761517</v>
+        <v>0.143911</v>
       </c>
       <c r="O17">
-        <v>0.2856670437508328</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P17">
-        <v>0.2856670437508328</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q17">
-        <v>5.123579549215207</v>
+        <v>0.038552605612</v>
       </c>
       <c r="R17">
-        <v>5.123579549215207</v>
+        <v>0.231315633672</v>
       </c>
       <c r="S17">
-        <v>0.03448135998283854</v>
+        <v>0.0002223282735455078</v>
       </c>
       <c r="T17">
-        <v>0.03448135998283854</v>
+        <v>0.0002300778339191689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.0818355071188</v>
+        <v>0.535784</v>
       </c>
       <c r="H18">
-        <v>11.0818355071188</v>
+        <v>1.607352</v>
       </c>
       <c r="I18">
-        <v>0.1207047180875166</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J18">
-        <v>0.1207047180875166</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.093106289003298</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N18">
-        <v>0.093106289003298</v>
+        <v>1.407406</v>
       </c>
       <c r="O18">
-        <v>0.0575277480178632</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P18">
-        <v>0.0575277480178632</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q18">
-        <v>1.031788579412812</v>
+        <v>0.2513552054346667</v>
       </c>
       <c r="R18">
-        <v>1.031788579412812</v>
+        <v>2.262196848912</v>
       </c>
       <c r="S18">
-        <v>0.006943870606705867</v>
+        <v>0.001449535458987795</v>
       </c>
       <c r="T18">
-        <v>0.006943870606705867</v>
+        <v>0.002250091542167325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.535784</v>
+      </c>
+      <c r="H19">
+        <v>1.607352</v>
+      </c>
+      <c r="I19">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J19">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03556466666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.106694</v>
+      </c>
+      <c r="O19">
+        <v>0.01914578269786067</v>
+      </c>
+      <c r="P19">
+        <v>0.02421928699130962</v>
+      </c>
+      <c r="Q19">
+        <v>0.01905497936533334</v>
+      </c>
+      <c r="R19">
+        <v>0.171494814288</v>
+      </c>
+      <c r="S19">
+        <v>0.0001098877909155168</v>
+      </c>
+      <c r="T19">
+        <v>0.0001705771234455449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.535784</v>
+      </c>
+      <c r="H20">
+        <v>1.607352</v>
+      </c>
+      <c r="I20">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J20">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1854883333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.5564650000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.09985526804661032</v>
+      </c>
+      <c r="P20">
+        <v>0.1263162458584279</v>
+      </c>
+      <c r="Q20">
+        <v>0.0993816811866667</v>
+      </c>
+      <c r="R20">
+        <v>0.8944351306800002</v>
+      </c>
+      <c r="S20">
+        <v>0.0005731222896489313</v>
+      </c>
+      <c r="T20">
+        <v>0.000889648893078572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.535784</v>
+      </c>
+      <c r="H21">
+        <v>1.607352</v>
+      </c>
+      <c r="I21">
+        <v>0.00573952983012784</v>
+      </c>
+      <c r="J21">
+        <v>0.007043028290087626</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.095428</v>
+      </c>
+      <c r="N21">
+        <v>2.190856</v>
+      </c>
+      <c r="O21">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P21">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q21">
+        <v>0.586912795552</v>
+      </c>
+      <c r="R21">
+        <v>3.521476773312</v>
+      </c>
+      <c r="S21">
+        <v>0.003384656017030088</v>
+      </c>
+      <c r="T21">
+        <v>0.003502632897477015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.754358</v>
+      </c>
+      <c r="H22">
+        <v>101.263074</v>
+      </c>
+      <c r="I22">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J22">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.07195550000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.143911</v>
+      </c>
+      <c r="O22">
+        <v>0.03873632163709057</v>
+      </c>
+      <c r="P22">
+        <v>0.03266745843446078</v>
+      </c>
+      <c r="Q22">
+        <v>2.428811707069</v>
+      </c>
+      <c r="R22">
+        <v>14.572870242414</v>
+      </c>
+      <c r="S22">
+        <v>0.01400666712476857</v>
+      </c>
+      <c r="T22">
+        <v>0.01449488893653444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.754358</v>
+      </c>
+      <c r="H23">
+        <v>101.263074</v>
+      </c>
+      <c r="I23">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J23">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4691353333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.407406</v>
+      </c>
+      <c r="O23">
+        <v>0.2525529968289247</v>
+      </c>
+      <c r="P23">
+        <v>0.3194778509315529</v>
+      </c>
+      <c r="Q23">
+        <v>15.83536199178267</v>
+      </c>
+      <c r="R23">
+        <v>142.518257926044</v>
+      </c>
+      <c r="S23">
+        <v>0.09132064193101766</v>
+      </c>
+      <c r="T23">
+        <v>0.1417556243693129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.754358</v>
+      </c>
+      <c r="H24">
+        <v>101.263074</v>
+      </c>
+      <c r="I24">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J24">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03556466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.106694</v>
+      </c>
+      <c r="O24">
+        <v>0.01914578269786067</v>
+      </c>
+      <c r="P24">
+        <v>0.02421928699130962</v>
+      </c>
+      <c r="Q24">
+        <v>1.200462490817334</v>
+      </c>
+      <c r="R24">
+        <v>10.804162417356</v>
+      </c>
+      <c r="S24">
+        <v>0.006922923854373222</v>
+      </c>
+      <c r="T24">
+        <v>0.01074634795251653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.754358</v>
+      </c>
+      <c r="H25">
+        <v>101.263074</v>
+      </c>
+      <c r="I25">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J25">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1854883333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.5564650000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.09985526804661032</v>
+      </c>
+      <c r="P25">
+        <v>0.1263162458584279</v>
+      </c>
+      <c r="Q25">
+        <v>6.261039608156668</v>
+      </c>
+      <c r="R25">
+        <v>56.34935647341001</v>
+      </c>
+      <c r="S25">
+        <v>0.03610666787845423</v>
+      </c>
+      <c r="T25">
+        <v>0.05604782380824705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="H19">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="I19">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="J19">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.06301215749774</v>
-      </c>
-      <c r="N19">
-        <v>1.06301215749774</v>
-      </c>
-      <c r="O19">
-        <v>0.6568052082313038</v>
-      </c>
-      <c r="P19">
-        <v>0.6568052082313038</v>
-      </c>
-      <c r="Q19">
-        <v>11.78012587145742</v>
-      </c>
-      <c r="R19">
-        <v>11.78012587145742</v>
-      </c>
-      <c r="S19">
-        <v>0.07927948749797215</v>
-      </c>
-      <c r="T19">
-        <v>0.07927948749797215</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.754358</v>
+      </c>
+      <c r="H26">
+        <v>101.263074</v>
+      </c>
+      <c r="I26">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J26">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.095428</v>
+      </c>
+      <c r="N26">
+        <v>2.190856</v>
+      </c>
+      <c r="O26">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P26">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q26">
+        <v>36.975468875224</v>
+      </c>
+      <c r="R26">
+        <v>221.852813251344</v>
+      </c>
+      <c r="S26">
+        <v>0.2132331142880111</v>
+      </c>
+      <c r="T26">
+        <v>0.2206656502695423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.332808</v>
+      </c>
+      <c r="H27">
+        <v>22.665616</v>
+      </c>
+      <c r="I27">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J27">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.07195550000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.143911</v>
+      </c>
+      <c r="O27">
+        <v>0.03873632163709057</v>
+      </c>
+      <c r="P27">
+        <v>0.03266745843446078</v>
+      </c>
+      <c r="Q27">
+        <v>0.8154578660440001</v>
+      </c>
+      <c r="R27">
+        <v>3.261831464176</v>
+      </c>
+      <c r="S27">
+        <v>0.004702648151237662</v>
+      </c>
+      <c r="T27">
+        <v>0.003244376983836557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.332808</v>
+      </c>
+      <c r="H28">
+        <v>22.665616</v>
+      </c>
+      <c r="I28">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J28">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4691353333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.407406</v>
+      </c>
+      <c r="O28">
+        <v>0.2525529968289247</v>
+      </c>
+      <c r="P28">
+        <v>0.3194778509315529</v>
+      </c>
+      <c r="Q28">
+        <v>5.316620658682666</v>
+      </c>
+      <c r="R28">
+        <v>31.899723952096</v>
+      </c>
+      <c r="S28">
+        <v>0.03066031655648649</v>
+      </c>
+      <c r="T28">
+        <v>0.03172902442004762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.332808</v>
+      </c>
+      <c r="H29">
+        <v>22.665616</v>
+      </c>
+      <c r="I29">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J29">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03556466666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.106694</v>
+      </c>
+      <c r="O29">
+        <v>0.01914578269786067</v>
+      </c>
+      <c r="P29">
+        <v>0.02421928699130962</v>
+      </c>
+      <c r="Q29">
+        <v>0.4030475389173334</v>
+      </c>
+      <c r="R29">
+        <v>2.418285233504</v>
+      </c>
+      <c r="S29">
+        <v>0.002324327034755976</v>
+      </c>
+      <c r="T29">
+        <v>0.00240534467770676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.332808</v>
+      </c>
+      <c r="H30">
+        <v>22.665616</v>
+      </c>
+      <c r="I30">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J30">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1854883333333334</v>
+      </c>
+      <c r="N30">
+        <v>0.5564650000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.09985526804661032</v>
+      </c>
+      <c r="P30">
+        <v>0.1263162458584279</v>
+      </c>
+      <c r="Q30">
+        <v>2.102103667906667</v>
+      </c>
+      <c r="R30">
+        <v>12.61262200744</v>
+      </c>
+      <c r="S30">
+        <v>0.01212258087048461</v>
+      </c>
+      <c r="T30">
+        <v>0.01254513024237626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.332808</v>
+      </c>
+      <c r="H31">
+        <v>22.665616</v>
+      </c>
+      <c r="I31">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J31">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.095428</v>
+      </c>
+      <c r="N31">
+        <v>2.190856</v>
+      </c>
+      <c r="O31">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P31">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q31">
+        <v>12.414275201824</v>
+      </c>
+      <c r="R31">
+        <v>49.657100807296</v>
+      </c>
+      <c r="S31">
+        <v>0.0715916428766942</v>
+      </c>
+      <c r="T31">
+        <v>0.04939137926426905</v>
       </c>
     </row>
   </sheetData>
